--- a/Excel/Pegawai.xlsx
+++ b/Excel/Pegawai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cool Yeah\Semester 3\SBD\FP\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cool Yeah\Semester 3\SBD\FP_SBD\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4337B961-59AC-4969-8AA0-5500B0629EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F138B7-B186-4B6B-9D4D-8281C06C533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{491B96FC-939E-4AEB-B8D1-8D411949B3A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Nama</t>
   </si>
@@ -132,16 +132,70 @@
   </si>
   <si>
     <t>081678901234</t>
+  </si>
+  <si>
+    <t>PG001</t>
+  </si>
+  <si>
+    <t>PG002</t>
+  </si>
+  <si>
+    <t>PG003</t>
+  </si>
+  <si>
+    <t>PG004</t>
+  </si>
+  <si>
+    <t>PG005</t>
+  </si>
+  <si>
+    <t>PG006</t>
+  </si>
+  <si>
+    <t>PG007</t>
+  </si>
+  <si>
+    <t>PG008</t>
+  </si>
+  <si>
+    <t>PG009</t>
+  </si>
+  <si>
+    <t>PG010</t>
+  </si>
+  <si>
+    <t>PG011</t>
+  </si>
+  <si>
+    <t>PG012</t>
+  </si>
+  <si>
+    <t>PG013</t>
+  </si>
+  <si>
+    <t>PG014</t>
+  </si>
+  <si>
+    <t>PG015</t>
+  </si>
+  <si>
+    <t>PG016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AC8664-9AC3-46D9-B5BF-56A8E6E01DFC}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,147 +549,190 @@
     <col min="1" max="2" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:B16" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>